--- a/public/commentdata.xlsx
+++ b/public/commentdata.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +18,430 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>双击666～～</t>
+    <rPh sb="0" eb="1">
+      <t>shuang ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新婚快乐！！</t>
+    <rPh sb="0" eb="1">
+      <t>xin hun kuai l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高生：祝福你新婚快乐，早生贵子！</t>
+    <rPh sb="0" eb="1">
+      <t>gao sheng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu fu ni</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin hun kuai l</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zao sheng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gui z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看着请柬的喜报，瞧着鞭炮的欢笑，听着锣鼓的喧闹，望着新人的娇俏，想着洞房的玩笑，吹着祝福的号角，祝你们相亲相爱，白头偕老！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞭炮轰鸣，锣鼓喧天，一派吉祥喜气满满；新婚燕尔，快乐连连，祝你婚姻幸福美满；白头偕老，富贵平安，愿你夫妻顺心如愿，至此良辰吉日，祝你喜事多多，万事大吉。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情深深，雨濛濛，夫妻恩爱世人敬。酒美美，糖香香，亲朋好友祝福忙。衣帅帅，妆靓靓，郎才女貌真时尚。日红红，家旺旺，龙凤双胎很盼望。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新婚同祝愿，百年好合同与共</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬祝你们百年好合，永结同心！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一生情、一世爱、一对鸳鸯浴爱河！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6哥7姐，新婚快乐，三年抱俩！</t>
+    <rPh sb="1" eb="2">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin hun kuai le</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>san nian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bao lia ing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6哥新婚快乐！</t>
+    <rPh sb="1" eb="2">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin hun kuai l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩爱新人盟白首，缠绵情意缔良缘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美满良缘，白首成约！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衷心的祝福你们：相互珍惜，同心永结！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">相亲相爱幸福永，同德同心幸福长。愿你俩情比海深！ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7姐7姐7姐7姐7姐7姐7姐7姐7姐7姐7姐7姐～～～</t>
+    <rPh sb="1" eb="2">
+      <t>jie jie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前排出售瓜子，香烟，方便面，火腿肠…..</t>
+    <rPh sb="0" eb="1">
+      <t>qian pai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu shou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gua zi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiang yan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fang bian m</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>huo tui chang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>666666666666666</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭！跑车！刷起来。。。</t>
+    <rPh sb="0" eb="1">
+      <t>huo jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pao che</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shua qi lai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6得飞7～～～</t>
+    <rPh sb="1" eb="2">
+      <t>de</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啦啦啦啦啦啦</t>
+    <rPh sb="0" eb="1">
+      <t>la la lla la la lla</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈哈哈哈哈哈</t>
+    <rPh sb="0" eb="1">
+      <t>ha ha h ha ha ha h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗨起来！！</t>
+    <rPh sb="0" eb="1">
+      <t>hai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qi lai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这很码农。。。</t>
+    <rPh sb="0" eb="1">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ma nong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是什么？？！</t>
+    <rPh sb="0" eb="1">
+      <t>zhe shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shen m</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">两情相悦的最高境界是相对两无厌，祝福一对新人真心相爱，相约永久恭贺新婚之禧！ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前排沙发….</t>
+    <rPh sb="0" eb="1">
+      <t>qian pai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sha fa</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来来来！成语接龙……</t>
+    <rPh sb="0" eb="1">
+      <t>lai lai lai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng yu jie l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一生一世！</t>
+    <rPh sb="0" eb="1">
+      <t>yi sheng yi shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两情相悦</t>
+    <rPh sb="0" eb="1">
+      <t>liang qing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三世同缘</t>
+    <rPh sb="0" eb="1">
+      <t>san</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong yuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan fen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四喜连连</t>
+    <rPh sb="0" eb="1">
+      <t>si</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian lian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五谷丰登</t>
+    <rPh sb="0" eb="1">
+      <t>wu gu feng d</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <rPh sb="0" eb="1">
+      <t>liu liu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da shun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七七四十九</t>
+    <rPh sb="0" eb="1">
+      <t>qi xi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si shi you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方进财～</t>
+    <rPh sb="1" eb="2">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin cai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>久久长情！！！</t>
+    <rPh sb="0" eb="1">
+      <t>jiu jiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang qing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十全十美！！。。</t>
+    <rPh sb="0" eb="1">
+      <t>shi quan shi mei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝你们永远相爱，携手共渡美丽人生！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">恭喜你们步入爱的殿堂。祝百年好合！ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十年修得同船渡，百年修得共枕眠。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">愿爱洋溢在你甜蜜的生活中，让以后的每一个日子，都象今日这般辉煌喜悦！ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今夕何夕，空气里都充满了醉人的甜蜜。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天作之合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">心心相印 永结同心 相亲相爱 百年好合 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7姐今日你最大！</t>
+    <rPh sb="1" eb="2">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin ri</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ni zui da</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开心～～～</t>
+    <rPh sb="0" eb="1">
+      <t>kai xin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>琦琦，祝福你</t>
+    <rPh sb="0" eb="1">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu fu ni</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gogogogogogo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新婚快乐，幸福美满</t>
+    <rPh sb="0" eb="1">
+      <t>xin hun kuai le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing fu mei m</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,6 +453,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -338,92 +766,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1001</v>
-      </c>
-      <c r="B1">
-        <v>111</v>
+        <v>9999</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1002</v>
-      </c>
-      <c r="B2">
-        <v>222</v>
+        <v>9999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1003</v>
-      </c>
-      <c r="B3">
-        <v>333</v>
+        <v>1062</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1004</v>
-      </c>
-      <c r="B4">
-        <v>444</v>
+        <v>9999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1005</v>
-      </c>
-      <c r="B5">
-        <v>555</v>
+        <v>9999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1006</v>
-      </c>
-      <c r="B6">
-        <v>666</v>
+        <v>9999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1007</v>
-      </c>
-      <c r="B7">
-        <v>777</v>
+        <v>9999</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1008</v>
-      </c>
-      <c r="B8">
-        <v>888</v>
+        <v>9999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1009</v>
-      </c>
-      <c r="B9">
-        <v>999</v>
+        <v>9999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1010</v>
-      </c>
-      <c r="B10">
-        <v>1110</v>
+        <v>9999</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9999</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9999</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9999</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9999</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9999</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>9999</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9999</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9999</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9999</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9999</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>9999</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>9999</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>9999</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9999</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9999</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9999</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>9999</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>9999</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>9999</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>9999</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>9999</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>9999</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>9999</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>9999</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>9999</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>9999</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>9999</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>9999</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9999</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>9999</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>9999</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>9999</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9999</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9999</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>9999</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>9999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>9999</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>9999</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>9999</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/public/commentdata.xlsx
+++ b/public/commentdata.xlsx
@@ -484,8 +484,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -766,407 +767,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="149.125" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>9999</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1">
+        <v>1530512381990</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9999</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="1">
+        <v>1530512396572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1062</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="1">
+        <v>1530512411154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9999</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
+        <v>1530512425736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9999</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
+        <v>1530512440318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9999</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <v>1530512454900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9999</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
+        <v>1530512469482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9999</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
+        <v>1530512484064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9999</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <v>1530512498646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9999</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>1530512513228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9999</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="1">
+        <v>1530512527810</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9999</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>1530512542392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9999</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>1530512556974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9999</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>1530512571556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9999</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>1530512586138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9999</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>1530512600720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9999</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>1530512615302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9999</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
+        <v>1530512629884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9999</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="1">
+        <v>1530512644466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9999</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>1530512659048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9999</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>1530512673630</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9999</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>1530512688212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9999</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>1530512702794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9999</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>1530512717376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9999</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>1530512731958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>9999</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>1530512746540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9999</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>1530512761122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9999</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>1530512775704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>9999</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>1530512790286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>9999</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>1530512804868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>9999</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>1530512819450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9999</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>1530512834032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>9999</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <v>1530512848614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9999</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <v>1530512863196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9999</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>1530512877778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9999</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>1530512892360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9999</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="1">
+        <v>1530512906942</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9999</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>1530512921524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9999</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="1">
+        <v>1530512936106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9999</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="1">
+        <v>1530512950688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9999</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>1530512965270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9999</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
+        <v>1530512979852</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>9999</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="1">
+        <v>1530512994434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9999</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="1">
+        <v>1530513009016</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9999</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="1">
+        <v>1530513023598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9999</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="1">
+        <v>1530513038180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>9999</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="1">
+        <v>1530513052762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>9999</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="1">
+        <v>1530513067344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>9999</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="1">
+        <v>1530513081926</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9999</v>
       </c>
